--- a/biology/Histoire de la zoologie et de la botanique/Stephen_Alfred_Forbes/Stephen_Alfred_Forbes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stephen_Alfred_Forbes/Stephen_Alfred_Forbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Alfred Forbes est un naturaliste américain, né le 29 mai 1844 à Silver Creek dans le comté de Stephenson dans l’Illinois et mort le 13 mars 1930 à Urbana.
 Forbes est le fils d’Isaac Sawyer et d’Agnès née Van Hoesen. Il fait ses études au Rush Medical College et obtient son doctorat à l’université de l'Indiana en 1884. Marié avec Clara Shaw Gaston le 25 décembre 1873, il aura cinq enfants.
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1893 : A preliminary report on the aquatic invertebrate fauna of the Yellowstone National Park, Wyoming, and of the Flathead Region of Montana (Washington) – Exemplaire numérique sur Canadian Librairies.
 1908 : Maps showing distribution of Illinois fishes, to accompany a report on the Fishes of Illinois (State Legislature, Danville) – Exemplaire numérique sur American Librairies.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Bocking (1990). Stephen Forbes, Jacob Reighard, and the emergence of aquatic ecology in the Great Lakes region, Journal of the History of Biology, 23 (3) : 461-498.  (ISSN 0022-5010)
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis                    </t>
